--- a/biology/Botanique/Desmodium/Desmodium.xlsx
+++ b/biology/Botanique/Desmodium/Desmodium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Desmodium est un genre de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, à répartition pantropicale, qui comprend plus de 300 espèces.
 Ce sont des plantes herbacées, des arbustes ou des arbrisseaux, aux feuilles généralement trifoliées et aux fleurs petites et nombreuses groupées en grappes ou panicules.
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (21 octobre 2018)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (21 octobre 2018) :
 Desmodium acanthocladum F.Muell.
 Desmodium adscendens (Sw.)DC.
 Desmodium affine Schltdl.
